--- a/バッチ開発補助/シェル共通設定.xlsx
+++ b/バッチ開発補助/シェル共通設定.xlsx
@@ -12,12 +12,6 @@
     <sheet name="batch_dir.config" sheetId="1" r:id="rId3"/>
     <sheet name="java_env.config" sheetId="2" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="カテゴライズ">'[1]1'!$AH$10:$AH$14</definedName>
-  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -3603,57 +3597,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="1"/>
-      <sheetName val="SG増幅(Java単バッチ)"/>
-      <sheetName val="template5"/>
-      <sheetName val="template4"/>
-      <sheetName val="template3"/>
-      <sheetName val="template2"/>
-      <sheetName val="template"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="10">
-          <cell r="AH10" t="str">
-            <v>batch</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AH11" t="str">
-            <v>mq</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AH12" t="str">
-            <v>physics</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AH13" t="str">
-            <v>bsg</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AH14" t="str">
-            <v>msg</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4420,9 +4363,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
   <cols>

--- a/バッチ開発補助/シェル共通設定.xlsx
+++ b/バッチ開発補助/シェル共通設定.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seko\git\github\nablarch-development-standards\nablarch-development-standards-tools\バッチ開発補助\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD32222-2DB8-44FD-BB63-B1C365DFCD11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="-60" windowWidth="15150" windowHeight="12810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要・使用方法" sheetId="5" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
   <si>
     <t>JAVA_HOME_PATH</t>
   </si>
@@ -592,47 +598,6 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「シェルスクリプト実行用環境依存項目設定ファイル」に関しては[シェルスクリプト開発標準] -&gt; [スクリプト作成方針]を参照のこと。</t>
-    <rPh sb="26" eb="27">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>環境依存項目管理ポリシーは[シェルスクリプト開発標準] -&gt; [【別紙】Nablarch環境依存項目管理ポリシー]シートを参照のこと。</t>
-    <rPh sb="0" eb="2">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イゾン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -961,8 +926,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1581,6 +1546,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1602,7 +1570,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="Rectangle 2"/>
+        <xdr:cNvPr id="1026" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1736,39 +1710,6 @@
             <a:t>   ※ シェルスクリプト共通ディレクトリは、共通的に使用されるシェルまたは設定ファイルを格納するディレクトリのルートディレクトリである。</a:t>
           </a:r>
         </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>       [シェルスクリプト開発標準] -&gt; [シェルスクリプト関連ファイル種類] を参照。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -1793,7 +1734,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="Rectangle 2"/>
+        <xdr:cNvPr id="2050" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2045,7 +1992,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2051" name="Rectangle 3"/>
+        <xdr:cNvPr id="2051" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2823,7 +2776,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2053" name="AutoShape 5"/>
+        <xdr:cNvPr id="2053" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
@@ -2936,7 +2895,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4098" name="Rectangle 2"/>
+        <xdr:cNvPr id="4098" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3600,7 +3565,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3642,7 +3607,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3675,9 +3640,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3710,6 +3692,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3885,188 +3884,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="5.625" style="1" customWidth="1"/>
     <col min="3" max="11" width="5.125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="16" customFormat="1">
+    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="C6" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C8" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="C9" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="D17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="12"/>
+    </row>
+    <row r="18" spans="4:28" ht="171.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="48"/>
+    </row>
+    <row r="19" spans="4:28" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="9">
+        <v>2</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="46" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="C10" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="C12" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="3:28">
-      <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28">
-      <c r="D19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="12"/>
-    </row>
-    <row r="20" spans="3:28" ht="171.75" customHeight="1">
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="48"/>
-    </row>
-    <row r="21" spans="3:28" ht="75.75" customHeight="1">
-      <c r="D21" s="9">
-        <v>2</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="48"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E20:P20"/>
-    <mergeCell ref="Q20:AB20"/>
-    <mergeCell ref="E21:P21"/>
-    <mergeCell ref="Q21:AB21"/>
+    <mergeCell ref="E18:P18"/>
+    <mergeCell ref="Q18:AB18"/>
+    <mergeCell ref="E19:P19"/>
+    <mergeCell ref="Q19:AB19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -4076,25 +4065,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="10" width="5.125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="16" customFormat="1">
+    <row r="1" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B4" s="13" t="s">
         <v>31</v>
       </c>
@@ -4106,7 +4095,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
       <c r="J4" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -4131,13 +4120,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="5.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.875" style="1" bestFit="1" customWidth="1"/>
@@ -4146,12 +4135,12 @@
     <col min="6" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1">
+    <row r="1" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
@@ -4162,7 +4151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
@@ -4170,10 +4159,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C6" s="4" t="s">
         <v>41</v>
       </c>
@@ -4184,59 +4173,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25" thickBot="1">
+    <row r="7" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C7" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="27.75" thickTop="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="C8" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="27">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="C9" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>58</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="27.75" thickBot="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C10" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="41.25" thickTop="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="41.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="C11" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
@@ -4244,15 +4233,15 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" ht="27.75" thickBot="1">
+    <row r="12" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C12" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>62</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
@@ -4260,7 +4249,7 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" ht="27.75" thickTop="1">
+    <row r="13" spans="1:12" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="C13" s="18" t="s">
         <v>57</v>
       </c>
@@ -4268,10 +4257,10 @@
         <v>63</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C14" s="4" t="s">
         <v>2</v>
       </c>
@@ -4279,10 +4268,10 @@
         <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
@@ -4290,10 +4279,10 @@
         <v>30</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="14.25" thickBot="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C16" s="17" t="s">
         <v>43</v>
       </c>
@@ -4301,54 +4290,54 @@
         <v>34</v>
       </c>
       <c r="E16" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" ht="15" thickTop="1" thickBot="1">
-      <c r="C17" s="43" t="s">
+      <c r="E18" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="C19" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D19" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="27.75" thickTop="1">
-      <c r="C18" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="27">
-      <c r="C19" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="23" t="s">
+      <c r="D20" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="14.25" thickBot="1">
-      <c r="C20" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" ht="14.25" thickTop="1"/>
+    </row>
+    <row r="21" spans="3:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -4359,13 +4348,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="5.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.875" style="1" customWidth="1"/>
@@ -4374,12 +4363,12 @@
     <col min="6" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1">
+    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
@@ -4390,7 +4379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
@@ -4398,10 +4387,10 @@
         <v>44</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
@@ -4409,10 +4398,10 @@
         <v>45</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="27">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -4420,10 +4409,10 @@
         <v>46</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
@@ -4431,10 +4420,10 @@
         <v>47</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="27">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
@@ -4442,10 +4431,10 @@
         <v>48</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="27">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
@@ -4453,10 +4442,10 @@
         <v>49</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="27">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
@@ -4464,10 +4453,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="27">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
@@ -4475,10 +4464,10 @@
         <v>51</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C13" s="7" t="s">
         <v>22</v>
       </c>
@@ -4486,10 +4475,10 @@
         <v>52</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="27">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C14" s="7" t="s">
         <v>23</v>
       </c>
@@ -4497,10 +4486,10 @@
         <v>53</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
@@ -4508,10 +4497,10 @@
         <v>54</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
@@ -4519,10 +4508,10 @@
         <v>55</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="27">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C17" s="7" t="s">
         <v>26</v>
       </c>
@@ -4530,7 +4519,7 @@
         <v>56</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
